--- a/Problems templates xlsx/AS_template.xlsx
+++ b/Problems templates xlsx/AS_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dorot\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AL\Problems templates xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA3A472-DBCA-4E3E-8BA5-1036E6D57375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6B5CE-9BC4-45F5-ADDB-0B0CA02895B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="3696" windowWidth="17712" windowHeight="12816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12024" yWindow="1368" windowWidth="26364" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AS_template" sheetId="1" r:id="rId1"/>
@@ -890,10 +890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:CC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO16" sqref="AO16"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:CC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -902,994 +902,1954 @@
     <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="str">
         <f ca="1">CONCATENATE("AS ", B3, "_", B4, "_plus_",B5,"_",B4)</f>
-        <v>AS 8_10_plus_2_10</v>
+        <v>AS 4_3_plus_1_3</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:H1" ca="1" si="0">CONCATENATE("AS ", C3, "_", C4, "_plus_",C5,"_",C4)</f>
-        <v>AS 7_4_plus_5_4</v>
+        <v>AS 7_5_plus_4_5</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AS 1_5_plus_8_5</v>
+        <v>AS 7_5_plus_6_5</v>
       </c>
       <c r="E1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AS 8_4_plus_5_4</v>
+        <v>AS 2_7_plus_3_7</v>
       </c>
       <c r="F1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AS 2_5_plus_10_5</v>
+        <v>AS 9_5_plus_8_5</v>
       </c>
       <c r="G1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AS 4_7_plus_3_7</v>
+        <v>AS 1_7_plus_7_7</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>AS 5_5_plus_3_5</v>
+        <v>AS 5_5_plus_5_5</v>
       </c>
       <c r="I1" t="str">
         <f t="shared" ref="I1:J1" ca="1" si="1">CONCATENATE("AS ", I3, "_", I4, "_plus_",I5,"_",I4)</f>
-        <v>AS 3_2_plus_5_2</v>
+        <v>AS 7_10_plus_3_10</v>
       </c>
       <c r="J1" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>AS 5_8_plus_6_8</v>
+        <v>AS 4_10_plus_2_10</v>
       </c>
       <c r="K1" t="str">
         <f t="shared" ref="K1:AM1" ca="1" si="2">CONCATENATE("AS ", K3, "_", K4, "_plus_",K5,"_",K4)</f>
-        <v>AS 6_9_plus_1_9</v>
+        <v>AS 5_9_plus_2_9</v>
       </c>
       <c r="L1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 5_1_plus_8_1</v>
+        <v>AS 10_9_plus_6_9</v>
       </c>
       <c r="M1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 4_1_plus_5_1</v>
+        <v>AS 2_6_plus_9_6</v>
       </c>
       <c r="N1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 6_9_plus_3_9</v>
+        <v>AS 8_8_plus_4_8</v>
       </c>
       <c r="O1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 2_3_plus_7_3</v>
+        <v>AS 7_8_plus_7_8</v>
       </c>
       <c r="P1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 7_3_plus_3_3</v>
+        <v>AS 9_5_plus_5_5</v>
       </c>
       <c r="Q1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 7_8_plus_8_8</v>
+        <v>AS 3_8_plus_6_8</v>
       </c>
       <c r="R1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 3_8_plus_8_8</v>
+        <v>AS 9_7_plus_4_7</v>
       </c>
       <c r="S1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 9_7_plus_4_7</v>
+        <v>AS 6_2_plus_3_2</v>
       </c>
       <c r="T1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 8_5_plus_7_5</v>
+        <v>AS 6_2_plus_5_2</v>
       </c>
       <c r="U1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 7_8_plus_2_8</v>
+        <v>AS 5_3_plus_4_3</v>
       </c>
       <c r="V1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 6_5_plus_8_5</v>
+        <v>AS 5_6_plus_10_6</v>
       </c>
       <c r="W1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 4_8_plus_8_8</v>
+        <v>AS 7_4_plus_8_4</v>
       </c>
       <c r="X1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 8_3_plus_1_3</v>
+        <v>AS 10_1_plus_7_1</v>
       </c>
       <c r="Y1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 2_4_plus_7_4</v>
+        <v>AS 5_4_plus_1_4</v>
       </c>
       <c r="Z1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 3_1_plus_10_1</v>
+        <v>AS 10_6_plus_8_6</v>
       </c>
       <c r="AA1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 1_9_plus_5_9</v>
+        <v>AS 2_5_plus_4_5</v>
       </c>
       <c r="AB1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 10_4_plus_8_4</v>
+        <v>AS 4_9_plus_5_9</v>
       </c>
       <c r="AC1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 4_6_plus_7_6</v>
+        <v>AS 7_8_plus_9_8</v>
       </c>
       <c r="AD1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 1_8_plus_7_8</v>
+        <v>AS 10_6_plus_4_6</v>
       </c>
       <c r="AE1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 1_6_plus_1_6</v>
+        <v>AS 3_9_plus_4_9</v>
       </c>
       <c r="AF1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 1_2_plus_7_2</v>
+        <v>AS 2_4_plus_10_4</v>
       </c>
       <c r="AG1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 1_3_plus_2_3</v>
+        <v>AS 5_7_plus_7_7</v>
       </c>
       <c r="AH1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 3_3_plus_3_3</v>
+        <v>AS 3_10_plus_8_10</v>
       </c>
       <c r="AI1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 8_5_plus_9_5</v>
+        <v>AS 4_9_plus_7_9</v>
       </c>
       <c r="AJ1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 2_8_plus_7_8</v>
+        <v>AS 4_3_plus_8_3</v>
       </c>
       <c r="AK1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 2_7_plus_6_7</v>
+        <v>AS 2_3_plus_4_3</v>
       </c>
       <c r="AL1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 5_9_plus_1_9</v>
+        <v>AS 7_2_plus_3_2</v>
       </c>
       <c r="AM1" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>AS 10_10_plus_4_10</v>
+        <v>AS 6_5_plus_2_5</v>
       </c>
       <c r="AN1" t="str">
-        <f t="shared" ref="AN1:AT1" ca="1" si="3">CONCATENATE("AS ", AN3, "_", AN4, "_plus_",AN5,"_",AN4)</f>
-        <v>AS 3_1_plus_8_1</v>
+        <f t="shared" ref="AN1:AO1" ca="1" si="3">CONCATENATE("AS ", AN3, "_", AN4, "_plus_",AN5,"_",AN4)</f>
+        <v>AS 1_2_plus_4_2</v>
       </c>
       <c r="AO1" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>AS 2_10_plus_10_10</v>
+        <v>AS 7_7_plus_7_7</v>
+      </c>
+      <c r="AP1" t="str">
+        <f t="shared" ref="AP1:CC1" ca="1" si="4">CONCATENATE("AS ", AP3, "_", AP4, "_plus_",AP5,"_",AP4)</f>
+        <v>AS 6_1_plus_6_1</v>
+      </c>
+      <c r="AQ1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 10_4_plus_10_4</v>
+      </c>
+      <c r="AR1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 6_7_plus_6_7</v>
+      </c>
+      <c r="AS1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 8_1_plus_8_1</v>
+      </c>
+      <c r="AT1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 5_4_plus_4_4</v>
+      </c>
+      <c r="AU1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_7_plus_4_7</v>
+      </c>
+      <c r="AV1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 2_3_plus_8_3</v>
+      </c>
+      <c r="AW1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 2_5_plus_10_5</v>
+      </c>
+      <c r="AX1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 9_8_plus_7_8</v>
+      </c>
+      <c r="AY1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 5_2_plus_9_2</v>
+      </c>
+      <c r="AZ1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 6_7_plus_6_7</v>
+      </c>
+      <c r="BA1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 9_3_plus_5_3</v>
+      </c>
+      <c r="BB1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 4_9_plus_5_9</v>
+      </c>
+      <c r="BC1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 8_10_plus_4_10</v>
+      </c>
+      <c r="BD1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 1_4_plus_5_4</v>
+      </c>
+      <c r="BE1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 5_10_plus_2_10</v>
+      </c>
+      <c r="BF1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 8_8_plus_4_8</v>
+      </c>
+      <c r="BG1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 10_2_plus_2_2</v>
+      </c>
+      <c r="BH1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 9_6_plus_6_6</v>
+      </c>
+      <c r="BI1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 8_10_plus_4_10</v>
+      </c>
+      <c r="BJ1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 4_8_plus_1_8</v>
+      </c>
+      <c r="BK1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 6_1_plus_2_1</v>
+      </c>
+      <c r="BL1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_7_plus_2_7</v>
+      </c>
+      <c r="BM1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 6_9_plus_4_9</v>
+      </c>
+      <c r="BN1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 9_3_plus_2_3</v>
+      </c>
+      <c r="BO1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_9_plus_5_9</v>
+      </c>
+      <c r="BP1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_3_plus_3_3</v>
+      </c>
+      <c r="BQ1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 9_3_plus_5_3</v>
+      </c>
+      <c r="BR1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 4_6_plus_9_6</v>
+      </c>
+      <c r="BS1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 6_5_plus_2_5</v>
+      </c>
+      <c r="BT1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_4_plus_2_4</v>
+      </c>
+      <c r="BU1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_8_plus_8_8</v>
+      </c>
+      <c r="BV1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 10_10_plus_5_10</v>
+      </c>
+      <c r="BW1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 4_10_plus_4_10</v>
+      </c>
+      <c r="BX1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 5_3_plus_8_3</v>
+      </c>
+      <c r="BY1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 1_10_plus_9_10</v>
+      </c>
+      <c r="BZ1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 7_2_plus_3_2</v>
+      </c>
+      <c r="CA1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 4_5_plus_10_5</v>
+      </c>
+      <c r="CB1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 3_6_plus_3_6</v>
+      </c>
+      <c r="CC1" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>AS 7_5_plus_4_5</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">B1</f>
-        <v>AS 8_10_plus_2_10</v>
+        <v>AS 4_3_plus_1_3</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:H2" ca="1" si="4">C1</f>
-        <v>AS 7_4_plus_5_4</v>
+        <f t="shared" ref="C2:H2" ca="1" si="5">C1</f>
+        <v>AS 7_5_plus_4_5</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>AS 1_5_plus_8_5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>AS 7_5_plus_6_5</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>AS 8_4_plus_5_4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>AS 2_7_plus_3_7</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>AS 9_5_plus_8_5</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>AS 1_7_plus_7_7</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>AS 5_5_plus_5_5</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:J2" ca="1" si="6">I1</f>
+        <v>AS 7_10_plus_3_10</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>AS 4_10_plus_2_10</v>
+      </c>
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:AM2" ca="1" si="7">K1</f>
+        <v>AS 5_9_plus_2_9</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 10_9_plus_6_9</v>
+      </c>
+      <c r="M2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 2_6_plus_9_6</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 8_8_plus_4_8</v>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 7_8_plus_7_8</v>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 9_5_plus_5_5</v>
+      </c>
+      <c r="Q2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 3_8_plus_6_8</v>
+      </c>
+      <c r="R2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 9_7_plus_4_7</v>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 6_2_plus_3_2</v>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 6_2_plus_5_2</v>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 5_3_plus_4_3</v>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 5_6_plus_10_6</v>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 7_4_plus_8_4</v>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 10_1_plus_7_1</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 5_4_plus_1_4</v>
+      </c>
+      <c r="Z2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 10_6_plus_8_6</v>
+      </c>
+      <c r="AA2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 2_5_plus_4_5</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 4_9_plus_5_9</v>
+      </c>
+      <c r="AC2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 7_8_plus_9_8</v>
+      </c>
+      <c r="AD2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 10_6_plus_4_6</v>
+      </c>
+      <c r="AE2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 3_9_plus_4_9</v>
+      </c>
+      <c r="AF2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 2_4_plus_10_4</v>
+      </c>
+      <c r="AG2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 5_7_plus_7_7</v>
+      </c>
+      <c r="AH2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 3_10_plus_8_10</v>
+      </c>
+      <c r="AI2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 4_9_plus_7_9</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 4_3_plus_8_3</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 2_3_plus_4_3</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 7_2_plus_3_2</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>AS 6_5_plus_2_5</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" ref="AN2:AO2" ca="1" si="8">AN1</f>
+        <v>AS 1_2_plus_4_2</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>AS 7_7_plus_7_7</v>
+      </c>
+      <c r="AP2" t="str">
+        <f t="shared" ref="AP2:CC2" ca="1" si="9">AP1</f>
+        <v>AS 6_1_plus_6_1</v>
+      </c>
+      <c r="AQ2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 10_4_plus_10_4</v>
+      </c>
+      <c r="AR2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 6_7_plus_6_7</v>
+      </c>
+      <c r="AS2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 8_1_plus_8_1</v>
+      </c>
+      <c r="AT2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 5_4_plus_4_4</v>
+      </c>
+      <c r="AU2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_7_plus_4_7</v>
+      </c>
+      <c r="AV2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 2_3_plus_8_3</v>
+      </c>
+      <c r="AW2" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>AS 2_5_plus_10_5</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>AS 4_7_plus_3_7</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>AS 5_5_plus_3_5</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:J2" ca="1" si="5">I1</f>
-        <v>AS 3_2_plus_5_2</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>AS 5_8_plus_6_8</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" ref="K2:AM2" ca="1" si="6">K1</f>
-        <v>AS 6_9_plus_1_9</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 5_1_plus_8_1</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 4_1_plus_5_1</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 6_9_plus_3_9</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 2_3_plus_7_3</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 7_3_plus_3_3</v>
-      </c>
-      <c r="Q2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 7_8_plus_8_8</v>
-      </c>
-      <c r="R2" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="AX2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 9_8_plus_7_8</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 5_2_plus_9_2</v>
+      </c>
+      <c r="AZ2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 6_7_plus_6_7</v>
+      </c>
+      <c r="BA2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 9_3_plus_5_3</v>
+      </c>
+      <c r="BB2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 4_9_plus_5_9</v>
+      </c>
+      <c r="BC2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 8_10_plus_4_10</v>
+      </c>
+      <c r="BD2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 1_4_plus_5_4</v>
+      </c>
+      <c r="BE2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 5_10_plus_2_10</v>
+      </c>
+      <c r="BF2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 8_8_plus_4_8</v>
+      </c>
+      <c r="BG2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 10_2_plus_2_2</v>
+      </c>
+      <c r="BH2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 9_6_plus_6_6</v>
+      </c>
+      <c r="BI2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 8_10_plus_4_10</v>
+      </c>
+      <c r="BJ2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 4_8_plus_1_8</v>
+      </c>
+      <c r="BK2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 6_1_plus_2_1</v>
+      </c>
+      <c r="BL2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_7_plus_2_7</v>
+      </c>
+      <c r="BM2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 6_9_plus_4_9</v>
+      </c>
+      <c r="BN2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 9_3_plus_2_3</v>
+      </c>
+      <c r="BO2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_9_plus_5_9</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_3_plus_3_3</v>
+      </c>
+      <c r="BQ2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 9_3_plus_5_3</v>
+      </c>
+      <c r="BR2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 4_6_plus_9_6</v>
+      </c>
+      <c r="BS2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 6_5_plus_2_5</v>
+      </c>
+      <c r="BT2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_4_plus_2_4</v>
+      </c>
+      <c r="BU2" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>AS 3_8_plus_8_8</v>
       </c>
-      <c r="S2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 9_7_plus_4_7</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 8_5_plus_7_5</v>
-      </c>
-      <c r="U2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 7_8_plus_2_8</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 6_5_plus_8_5</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 4_8_plus_8_8</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 8_3_plus_1_3</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 2_4_plus_7_4</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 3_1_plus_10_1</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 1_9_plus_5_9</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 10_4_plus_8_4</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 4_6_plus_7_6</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 1_8_plus_7_8</v>
-      </c>
-      <c r="AE2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 1_6_plus_1_6</v>
-      </c>
-      <c r="AF2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 1_2_plus_7_2</v>
-      </c>
-      <c r="AG2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 1_3_plus_2_3</v>
-      </c>
-      <c r="AH2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 3_3_plus_3_3</v>
-      </c>
-      <c r="AI2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 8_5_plus_9_5</v>
-      </c>
-      <c r="AJ2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 2_8_plus_7_8</v>
-      </c>
-      <c r="AK2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 2_7_plus_6_7</v>
-      </c>
-      <c r="AL2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 5_9_plus_1_9</v>
-      </c>
-      <c r="AM2" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>AS 10_10_plus_4_10</v>
-      </c>
-      <c r="AN2" t="str">
-        <f t="shared" ref="AN2:AT2" ca="1" si="7">AN1</f>
-        <v>AS 3_1_plus_8_1</v>
-      </c>
-      <c r="AO2" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>AS 2_10_plus_10_10</v>
+      <c r="BV2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 10_10_plus_5_10</v>
+      </c>
+      <c r="BW2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 4_10_plus_4_10</v>
+      </c>
+      <c r="BX2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 5_3_plus_8_3</v>
+      </c>
+      <c r="BY2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 1_10_plus_9_10</v>
+      </c>
+      <c r="BZ2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 7_2_plus_3_2</v>
+      </c>
+      <c r="CA2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 4_5_plus_10_5</v>
+      </c>
+      <c r="CB2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 3_6_plus_3_6</v>
+      </c>
+      <c r="CC2" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>AS 7_5_plus_4_5</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(1,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:AK5" ca="1" si="10">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:AK5" ca="1" si="8">RANDBETWEEN(1,10)</f>
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="O3">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" ref="AK3:AZ5" ca="1" si="11">RANDBETWEEN(1,10)</f>
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AO3">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ca="1" si="11"/>
         <v>8</v>
       </c>
-      <c r="F3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AT3">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AW3">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" ref="AP3:CC5" ca="1" si="12">RANDBETWEEN(1,10)</f>
+        <v>9</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BF3">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BG3">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BH3">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BI3">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BJ3">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BK3">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BL3">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BM3">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BN3">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BO3">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="S3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BP3">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BQ3">
+        <f t="shared" ca="1" si="12"/>
         <v>9</v>
       </c>
-      <c r="T3">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BR3">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BS3">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BT3">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="AA3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BU3">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BV3">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BW3">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BX3">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BY3">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AB3">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BZ3">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="CA3">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="CB3">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="AI3">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AJ3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AL3">
-        <f t="shared" ref="AK3:AT5" ca="1" si="9">RANDBETWEEN(1,10)</f>
-        <v>5</v>
-      </c>
-      <c r="AM3">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AN3">
-        <f t="shared" ca="1" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+      <c r="CC3">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:Q5" ca="1" si="10">RANDBETWEEN(1,10)</f>
+        <f t="shared" ref="B4:Q5" ca="1" si="13">RANDBETWEEN(1,10)</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="13"/>
         <v>10</v>
       </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <f t="shared" ca="1" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ca="1" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="S4">
         <f t="shared" ca="1" si="10"/>
         <v>2</v>
       </c>
-      <c r="J4">
+      <c r="T4">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AC4">
         <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="AD4">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AE4">
         <f t="shared" ca="1" si="10"/>
         <v>9</v>
       </c>
-      <c r="L4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="AF4">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="AQ4">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="N4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="AT4">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AY4">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AZ4">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BB4">
+        <f t="shared" ca="1" si="12"/>
         <v>9</v>
       </c>
-      <c r="O4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="BC4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BE4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BF4">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BG4">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BI4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BJ4">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BK4">
+        <f t="shared" ca="1" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="BM4">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BN4">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="P4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="BO4">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BP4">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ca="1" si="10"/>
+      <c r="BQ4">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BR4">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BS4">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BT4">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BU4">
+        <f t="shared" ca="1" si="12"/>
         <v>8</v>
       </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BV4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BW4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BX4">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BY4">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BZ4">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CA4">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="CB4">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="CC4">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="13"/>
         <v>8</v>
       </c>
-      <c r="S4">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="T4">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="G5">
+        <f t="shared" ca="1" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ca="1" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
-      <c r="V4">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="W4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="X5">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ca="1" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ca="1" si="10"/>
         <v>8</v>
       </c>
-      <c r="X4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AA5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ca="1" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ca="1" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" ca="1" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
-      <c r="Y4">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="AM5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY5">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BA5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BB5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BC5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BD5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BE5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BF5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BG5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BH5">
+        <f t="shared" ca="1" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BI5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BJ5">
+        <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
-      <c r="AA4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BK5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BL5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BM5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BN5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BO5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BP5">
+        <f t="shared" ca="1" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="BQ5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BR5">
+        <f t="shared" ca="1" si="12"/>
         <v>9</v>
       </c>
-      <c r="AB4">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BS5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BT5">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="BU5">
+        <f t="shared" ca="1" si="12"/>
         <v>8</v>
       </c>
-      <c r="AE4">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="AF4">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AG4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="BV5">
+        <f t="shared" ca="1" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BW5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="BX5">
+        <f t="shared" ca="1" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BY5">
+        <f t="shared" ca="1" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BZ5">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="AH4">
-        <f t="shared" ca="1" si="8"/>
+      <c r="CA5">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="CB5">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AK4">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+      <c r="CC5">
+        <f t="shared" ca="1" si="12"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="10"/>
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="N5">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="U5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="X5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" ca="1" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" ca="1" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" ca="1" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" ca="1" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" ca="1" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" ca="1" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" ca="1" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" ca="1" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f ca="1">B3+B5</f>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:H6" ca="1" si="14">C3+C5</f>
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="14"/>
         <v>10</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:H6" ca="1" si="11">C3+C5</f>
+      <c r="I6">
+        <f t="shared" ref="I6:J6" ca="1" si="15">I3+I5</f>
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:AM6" ca="1" si="16">K3+K5</f>
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="11"/>
+      <c r="O6">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ca="1" si="16"/>
         <v>9</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="11"/>
+      <c r="R6">
+        <f t="shared" ca="1" si="16"/>
         <v>13</v>
       </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="11"/>
+      <c r="S6">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="U6">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ca="1" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="X6">
+        <f t="shared" ca="1" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ca="1" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ca="1" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ca="1" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ca="1" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ca="1" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="16"/>
         <v>12</v>
       </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="11"/>
+      <c r="AG6">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ca="1" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ca="1" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ca="1" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ca="1" si="16"/>
         <v>8</v>
       </c>
-      <c r="I6">
-        <f t="shared" ref="I6:J6" ca="1" si="12">I3+I5</f>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AO6" ca="1" si="17">AN3+AN5</f>
+        <v>5</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ca="1" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" ref="AP6:CC6" ca="1" si="18">AP3+AP5</f>
+        <v>12</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" ca="1" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" ca="1" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ca="1" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ca="1" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" ca="1" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" ca="1" si="18"/>
+        <v>16</v>
+      </c>
+      <c r="AY6">
+        <f t="shared" ca="1" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ca="1" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="BB6">
+        <f t="shared" ca="1" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="BC6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BD6">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="BE6">
+        <f t="shared" ca="1" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BH6">
+        <f t="shared" ca="1" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="BI6">
+        <f t="shared" ca="1" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="BJ6">
+        <f t="shared" ca="1" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="BK6">
+        <f t="shared" ca="1" si="18"/>
         <v>8</v>
       </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="12"/>
+      <c r="BL6">
+        <f t="shared" ca="1" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="BM6">
+        <f t="shared" ca="1" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="BN6">
+        <f t="shared" ca="1" si="18"/>
         <v>11</v>
       </c>
-      <c r="K6">
-        <f t="shared" ref="K6:AM6" ca="1" si="13">K3+K5</f>
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ca="1" si="13"/>
+      <c r="BO6">
+        <f t="shared" ca="1" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="BP6">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="BQ6">
+        <f t="shared" ca="1" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="BR6">
+        <f t="shared" ca="1" si="18"/>
         <v>13</v>
       </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="N6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ca="1" si="13"/>
+      <c r="BS6">
+        <f t="shared" ca="1" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="BT6">
+        <f t="shared" ca="1" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="BU6">
+        <f t="shared" ca="1" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="BV6">
+        <f t="shared" ca="1" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="BW6">
+        <f t="shared" ca="1" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="BX6">
+        <f t="shared" ca="1" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="BY6">
+        <f t="shared" ca="1" si="18"/>
         <v>10</v>
       </c>
-      <c r="Q6">
-        <f t="shared" ca="1" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="13"/>
+      <c r="BZ6">
+        <f t="shared" ca="1" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="CA6">
+        <f t="shared" ca="1" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="CB6">
+        <f t="shared" ca="1" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="CC6">
+        <f t="shared" ca="1" si="18"/>
         <v>11</v>
-      </c>
-      <c r="S6">
-        <f t="shared" ca="1" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="T6">
-        <f t="shared" ca="1" si="13"/>
-        <v>15</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ca="1" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ca="1" si="13"/>
-        <v>12</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ca="1" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ca="1" si="13"/>
-        <v>18</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ca="1" si="13"/>
-        <v>11</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AG6">
-        <f t="shared" ca="1" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" ca="1" si="13"/>
-        <v>17</v>
-      </c>
-      <c r="AJ6">
-        <f t="shared" ca="1" si="13"/>
-        <v>9</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" ca="1" si="13"/>
-        <v>8</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" ca="1" si="13"/>
-        <v>6</v>
-      </c>
-      <c r="AM6">
-        <f t="shared" ca="1" si="13"/>
-        <v>14</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" ref="AN6:AT6" ca="1" si="14">AN3+AN5</f>
-        <v>11</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" ca="1" si="14"/>
-        <v>12</v>
       </c>
     </row>
   </sheetData>
